--- a/CreateDB_NC/InputData/FragilityCurvesData/ProbabilityEachScenario.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/ProbabilityEachScenario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,62 +497,6 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2035</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8099999999999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2040</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8099999999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2045</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8099999999999999</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2050</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8099999999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CreateDB_NC/InputData/FragilityCurvesData/ProbabilityEachScenario.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/ProbabilityEachScenario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,62 @@
         <v>0.04</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CreateDB_NC/InputData/FragilityCurvesData/ProbabilityEachScenario.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/ProbabilityEachScenario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,48 +511,6 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2040</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8099999999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2045</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8099999999999999</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2050</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8099999999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CreateDB_NC/InputData/FragilityCurvesData/ProbabilityEachScenario.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/ProbabilityEachScenario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,26 +488,40 @@
         <v>2030</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="C4" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="B5" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B6" t="n">
         <v>0.8099999999999999</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>0.15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/CreateDB_NC/InputData/FragilityCurvesData/ProbabilityEachScenario.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/ProbabilityEachScenario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,48 @@
         <v>0.04</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
